--- a/pmid.xlsx
+++ b/pmid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F509C4-EC95-44C6-A3F3-228439D995C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96877E3A-8B55-4F02-B093-2366BE82BB74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="snp_score" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">condition!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">condition!$A$1:$A$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">snp_score!$A$1:$C$448</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -25,21 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
-  <si>
-    <t>condition_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>condition_name</t>
-  </si>
-  <si>
-    <t>gender_specific</t>
-  </si>
-  <si>
-    <t>condition_name_cn</t>
-  </si>
-  <si>
-    <t>I001</t>
   </si>
   <si>
     <t>coronary_heart_disease</t>
@@ -67,6 +55,10 @@
   </si>
   <si>
     <t>pmid</t>
+  </si>
+  <si>
+    <t>condition_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -529,46 +521,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -593,21 +574,21 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
-        <v>11</v>
-      </c>
       <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>26950853</v>
@@ -615,7 +596,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="6">
         <v>26950853</v>
@@ -624,7 +605,7 @@
     <row r="4" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" s="6">
         <v>26950853</v>
@@ -636,10 +617,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>21804106</v>
@@ -647,7 +628,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>17634449</v>
